--- a/gd/标准化文档/配置说明（简述）.xlsx
+++ b/gd/标准化文档/配置说明（简述）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="11655"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="11655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="677">
   <si>
     <t>#TEXT</t>
   </si>
@@ -3005,6 +3005,10 @@
   </si>
   <si>
     <t>动画实践中用不到的结构不要填写，会增加冗余解析，如</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效遇到纯模型的prefab需要增加一个空粒子，用Duration来确定生命时长。</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -19646,14 +19650,14 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5103">
@@ -32356,8 +32360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A687" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F715" sqref="F715"/>
+    <sheetView topLeftCell="A726" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H697" sqref="H697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -32415,7 +32419,7 @@
       <c r="A25" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="35" t="s">
         <v>314</v>
       </c>
     </row>
@@ -32689,21 +32693,21 @@
       <c r="I30" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="J30" s="36" t="s">
+      <c r="J30" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36" t="s">
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
     </row>
     <row r="31" spans="1:20" s="5" customFormat="1" ht="15">
       <c r="A31" s="5" t="s">
@@ -32733,7 +32737,7 @@
       <c r="A34" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="35" t="s">
         <v>314</v>
       </c>
     </row>
@@ -32886,7 +32890,7 @@
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="35" t="s">
         <v>314</v>
       </c>
     </row>
@@ -33076,7 +33080,7 @@
       <c r="A77" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C77" s="37" t="s">
+      <c r="C77" s="35" t="s">
         <v>315</v>
       </c>
     </row>
@@ -33415,17 +33419,17 @@
       <c r="H83" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="I83" s="36" t="s">
+      <c r="I83" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="36"/>
-      <c r="P83" s="36"/>
-      <c r="Q83" s="36"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="37"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="37"/>
+      <c r="N83" s="37"/>
+      <c r="O83" s="37"/>
+      <c r="P83" s="37"/>
+      <c r="Q83" s="37"/>
       <c r="R83" s="11" t="s">
         <v>159</v>
       </c>
@@ -33440,7 +33444,7 @@
       <c r="A86" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="37" t="s">
+      <c r="C86" s="35" t="s">
         <v>315</v>
       </c>
     </row>
@@ -33453,7 +33457,7 @@
       <c r="A90" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C90" s="37" t="s">
+      <c r="C90" s="35" t="s">
         <v>315</v>
       </c>
     </row>
@@ -35914,7 +35918,7 @@
       <c r="A528" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C528" s="37" t="s">
+      <c r="C528" s="35" t="s">
         <v>316</v>
       </c>
     </row>
@@ -37509,7 +37513,7 @@
       <c r="A788" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C788" s="37" t="s">
+      <c r="C788" s="35" t="s">
         <v>316</v>
       </c>
     </row>
@@ -37797,19 +37801,19 @@
       <c r="A793" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B793" s="35" t="s">
+      <c r="B793" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="C793" s="35"/>
-      <c r="D793" s="35"/>
-      <c r="E793" s="35" t="s">
+      <c r="C793" s="36"/>
+      <c r="D793" s="36"/>
+      <c r="E793" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="F793" s="35"/>
-      <c r="G793" s="35" t="s">
+      <c r="F793" s="36"/>
+      <c r="G793" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="H793" s="35"/>
+      <c r="H793" s="36"/>
       <c r="I793" s="5" t="s">
         <v>220</v>
       </c>
@@ -37822,23 +37826,23 @@
       <c r="L793" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="M793" s="35" t="s">
+      <c r="M793" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="N793" s="35"/>
-      <c r="O793" s="35"/>
-      <c r="P793" s="35"/>
-      <c r="Q793" s="35"/>
+      <c r="N793" s="36"/>
+      <c r="O793" s="36"/>
+      <c r="P793" s="36"/>
+      <c r="Q793" s="36"/>
       <c r="R793" s="5" t="s">
         <v>216</v>
       </c>
       <c r="S793" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="T793" s="36" t="s">
+      <c r="T793" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="U793" s="36"/>
+      <c r="U793" s="37"/>
       <c r="V793" s="5" t="s">
         <v>216</v>
       </c>
@@ -37866,9 +37870,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -37920,6 +37924,11 @@
     <row r="9" spans="1:2">
       <c r="B9" s="21" t="s">
         <v>675</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="21" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>
